--- a/Experiments/Closed_loop/Closed_loop_experiment by Nayab.xlsx
+++ b/Experiments/Closed_loop/Closed_loop_experiment by Nayab.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Our_stuff/Bristol_Robotics_MSc/Robotics_systems/Github/Experiments/Closed_loop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Bristol_Robotics_MSc/Robotics_systems/Github/Experiments/Closed_loop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2653ADDD-045B-9747-BC95-AC0DDBEAD19F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCB7CC2-0CE4-264C-9D5A-F09EAB37C0CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="1" xr2:uid="{E6BF64B5-3D42-4342-8C5E-5139F17F67C2}"/>
   </bookViews>
@@ -212,7 +212,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Path anit clock wise from origin</a:t>
+              <a:t> path by mobile robot Romi, anit clock wise from origin (0,0)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1585,7 +1585,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1598,11 +1598,19 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1100"/>
+                  <a:t>X-axis,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100"/>
                   <a:t>Distance</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="1100" baseline="0"/>
                   <a:t> in mm</a:t>
                 </a:r>
               </a:p>
@@ -1621,7 +1629,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1706,7 +1714,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1719,7 +1727,15 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1100"/>
+                  <a:t>Y-axis</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100"/>
                   <a:t>Distance in mm</a:t>
                 </a:r>
               </a:p>
@@ -1738,7 +1754,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1882,8 +1898,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Absolute Error</a:t>
+              <a:t>Absolute Error in mm for each measured</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> point</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2719,7 +2740,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Error</a:t>
+              <a:t>Error measured in mm at each point</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -5755,7 +5776,7 @@
   <dimension ref="A1:J210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5813,11 +5834,11 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f>(E2-B2)</f>
+        <f t="shared" ref="F2:F33" si="0">(E2-B2)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>ABS(E2-B2)</f>
+        <f t="shared" ref="G2:G33" si="1">ABS(E2-B2)</f>
         <v>0</v>
       </c>
       <c r="H2" s="5">
@@ -5844,11 +5865,11 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <f>(E3-B3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>ABS(E3-B3)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I3" s="4">
@@ -5870,15 +5891,15 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f>(E4-B4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>ABS(E4-B4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I67" si="0">F4*F4</f>
+        <f t="shared" ref="I4:I67" si="2">F4*F4</f>
         <v>0</v>
       </c>
     </row>
@@ -5896,15 +5917,15 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <f>(E5-B5)</f>
+        <f t="shared" si="0"/>
         <v>-0.02</v>
       </c>
       <c r="G5">
-        <f>ABS(E5-B5)</f>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
@@ -5922,15 +5943,15 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <f>(E6-B6)</f>
+        <f t="shared" si="0"/>
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="G6">
-        <f>ABS(E6-B6)</f>
+        <f t="shared" si="1"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.9000000000000007E-3</v>
       </c>
     </row>
@@ -5948,15 +5969,15 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <f>(E7-B7)</f>
+        <f t="shared" si="0"/>
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="G7">
-        <f>ABS(E7-B7)</f>
+        <f t="shared" si="1"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.9000000000000007E-3</v>
       </c>
     </row>
@@ -5974,15 +5995,15 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <f>(E8-B8)</f>
+        <f t="shared" si="0"/>
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="G8">
-        <f>ABS(E8-B8)</f>
+        <f t="shared" si="1"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.9000000000000007E-3</v>
       </c>
     </row>
@@ -6000,15 +6021,15 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <f>(E9-B9)</f>
+        <f t="shared" si="0"/>
         <v>-0.04</v>
       </c>
       <c r="G9">
-        <f>ABS(E9-B9)</f>
+        <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -6026,15 +6047,15 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <f>(E10-B10)</f>
+        <f t="shared" si="0"/>
         <v>-0.01</v>
       </c>
       <c r="G10">
-        <f>ABS(E10-B10)</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E-4</v>
       </c>
     </row>
@@ -6052,15 +6073,15 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <f>(E11-B11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>ABS(E11-B11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6078,15 +6099,15 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f>(E12-B12)</f>
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="G12">
-        <f>ABS(E12-B12)</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E-4</v>
       </c>
     </row>
@@ -6104,15 +6125,15 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <f>(E13-B13)</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="G13">
-        <f>ABS(E13-B13)</f>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
@@ -6130,15 +6151,15 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <f>(E14-B14)</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="G14">
-        <f>ABS(E14-B14)</f>
+        <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -6156,15 +6177,15 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <f>(E15-B15)</f>
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="G15">
-        <f>ABS(E15-B15)</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E-4</v>
       </c>
     </row>
@@ -6182,15 +6203,15 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <f>(E16-B16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16">
-        <f>ABS(E16-B16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6208,15 +6229,15 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <f>(E17-B17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G17">
-        <f>ABS(E17-B17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6234,15 +6255,15 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <f>(E18-B18)</f>
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="G18">
-        <f>ABS(E18-B18)</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E-4</v>
       </c>
     </row>
@@ -6260,15 +6281,15 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <f>(E19-B19)</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="G19">
-        <f>ABS(E19-B19)</f>
+        <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -6286,15 +6307,15 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <f>(E20-B20)</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="G20">
-        <f>ABS(E20-B20)</f>
+        <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -6312,15 +6333,15 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <f>(E21-B21)</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="G21">
-        <f>ABS(E21-B21)</f>
+        <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -6338,15 +6359,15 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <f>(E22-B22)</f>
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
       <c r="G22">
-        <f>ABS(E22-B22)</f>
+        <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
@@ -6364,15 +6385,15 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <f>(E23-B23)</f>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="G23">
-        <f>ABS(E23-B23)</f>
+        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
@@ -6390,15 +6411,15 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <f>(E24-B24)</f>
+        <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
       <c r="G24">
-        <f>ABS(E24-B24)</f>
+        <f t="shared" si="1"/>
         <v>0.09</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
@@ -6416,15 +6437,15 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <f>(E25-B25)</f>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="G25">
-        <f>ABS(E25-B25)</f>
+        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
@@ -6442,15 +6463,15 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <f>(E26-B26)</f>
+        <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G26">
-        <f>ABS(E26-B26)</f>
+        <f t="shared" si="1"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.9000000000000007E-3</v>
       </c>
     </row>
@@ -6468,15 +6489,15 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <f>(E27-B27)</f>
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
       <c r="G27">
-        <f>ABS(E27-B27)</f>
+        <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
@@ -6494,15 +6515,15 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <f>(E28-B28)</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="G28">
-        <f>ABS(E28-B28)</f>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
@@ -6520,15 +6541,15 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <f>(E29-B29)</f>
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="G29">
-        <f>ABS(E29-B29)</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E-4</v>
       </c>
     </row>
@@ -6546,15 +6567,15 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <f>(E30-B30)</f>
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="G30">
-        <f>ABS(E30-B30)</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E-4</v>
       </c>
     </row>
@@ -6572,15 +6593,15 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <f>(E31-B31)</f>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
       <c r="G31">
-        <f>ABS(E31-B31)</f>
+        <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -6598,15 +6619,15 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <f>(E32-B32)</f>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
       <c r="G32">
-        <f>ABS(E32-B32)</f>
+        <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -6624,15 +6645,15 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <f>(E33-B33)</f>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
       <c r="G33">
-        <f>ABS(E33-B33)</f>
+        <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -6650,15 +6671,15 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <f>(E34-B34)</f>
+        <f t="shared" ref="F34:F65" si="3">(E34-B34)</f>
         <v>0.03</v>
       </c>
       <c r="G34">
-        <f>ABS(E34-B34)</f>
+        <f t="shared" ref="G34:G50" si="4">ABS(E34-B34)</f>
         <v>0.03</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -6676,15 +6697,15 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <f>(E35-B35)</f>
+        <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
       <c r="G35">
-        <f>ABS(E35-B35)</f>
+        <f t="shared" si="4"/>
         <v>0.03</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -6702,15 +6723,15 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <f>(E36-B36)</f>
+        <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
       <c r="G36">
-        <f>ABS(E36-B36)</f>
+        <f t="shared" si="4"/>
         <v>0.03</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -6728,15 +6749,15 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <f>(E37-B37)</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="G37">
-        <f>ABS(E37-B37)</f>
+        <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000005E-3</v>
       </c>
     </row>
@@ -6754,15 +6775,15 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <f>(E38-B38)</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="G38">
-        <f>ABS(E38-B38)</f>
+        <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000005E-3</v>
       </c>
     </row>
@@ -6780,15 +6801,15 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <f>(E39-B39)</f>
+        <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
       <c r="G39">
-        <f>ABS(E39-B39)</f>
+        <f t="shared" si="4"/>
         <v>0.06</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
@@ -6806,15 +6827,15 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <f>(E40-B40)</f>
+        <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
       <c r="G40">
-        <f>ABS(E40-B40)</f>
+        <f t="shared" si="4"/>
         <v>0.06</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
@@ -6832,15 +6853,15 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <f>(E41-B41)</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="G41">
-        <f>ABS(E41-B41)</f>
+        <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
       <c r="I41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000005E-3</v>
       </c>
     </row>
@@ -6858,15 +6879,15 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <f>(E42-B42)</f>
+        <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
       <c r="G42">
-        <f>ABS(E42-B42)</f>
+        <f t="shared" si="4"/>
         <v>0.02</v>
       </c>
       <c r="I42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
@@ -6884,15 +6905,15 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <f>(E43-B43)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G43">
-        <f>ABS(E43-B43)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6910,15 +6931,15 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <f>(E44-B44)</f>
+        <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
       <c r="G44">
-        <f>ABS(E44-B44)</f>
+        <f t="shared" si="4"/>
         <v>0.03</v>
       </c>
       <c r="I44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -6936,15 +6957,15 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <f>(E45-B45)</f>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="G45">
-        <f>ABS(E45-B45)</f>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
       <c r="I45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E-4</v>
       </c>
     </row>
@@ -6962,15 +6983,15 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <f>(E46-B46)</f>
+        <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
       <c r="G46">
-        <f>ABS(E46-B46)</f>
+        <f t="shared" si="4"/>
         <v>0.03</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -6988,15 +7009,15 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <f>(E47-B47)</f>
+        <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
       <c r="G47">
-        <f>ABS(E47-B47)</f>
+        <f t="shared" si="4"/>
         <v>0.03</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -7014,15 +7035,15 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <f>(E48-B48)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G48">
-        <f>ABS(E48-B48)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7040,15 +7061,15 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <f>(E49-B49)</f>
+        <f t="shared" si="3"/>
         <v>-0.38</v>
       </c>
       <c r="G49">
-        <f>ABS(E49-B49)</f>
+        <f t="shared" si="4"/>
         <v>0.38</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.1444</v>
       </c>
     </row>
@@ -7066,15 +7087,15 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <f>(E50-B50)</f>
+        <f t="shared" si="3"/>
         <v>-1.67</v>
       </c>
       <c r="G50">
-        <f>ABS(E50-B50)</f>
+        <f t="shared" si="4"/>
         <v>1.67</v>
       </c>
       <c r="I50" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7888999999999999</v>
       </c>
     </row>
@@ -7092,15 +7113,15 @@
         <v>500</v>
       </c>
       <c r="F51">
-        <f>(D51-A51)</f>
+        <f t="shared" ref="F51:F98" si="5">(D51-A51)</f>
         <v>-1.6299999999999955</v>
       </c>
       <c r="G51">
-        <f>ABS(D51-A51)</f>
+        <f t="shared" ref="G51:G98" si="6">ABS(D51-A51)</f>
         <v>1.6299999999999955</v>
       </c>
       <c r="I51" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6568999999999852</v>
       </c>
     </row>
@@ -7118,15 +7139,15 @@
         <v>500</v>
       </c>
       <c r="F52">
-        <f>(D52-A52)</f>
+        <f t="shared" si="5"/>
         <v>-12.080000000000041</v>
       </c>
       <c r="G52">
-        <f>ABS(D52-A52)</f>
+        <f t="shared" si="6"/>
         <v>12.080000000000041</v>
       </c>
       <c r="I52" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>145.926400000001</v>
       </c>
     </row>
@@ -7144,15 +7165,15 @@
         <v>500</v>
       </c>
       <c r="F53">
-        <f>(D53-A53)</f>
+        <f t="shared" si="5"/>
         <v>-21.259999999999991</v>
       </c>
       <c r="G53">
-        <f>ABS(D53-A53)</f>
+        <f t="shared" si="6"/>
         <v>21.259999999999991</v>
       </c>
       <c r="I53" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>451.98759999999959</v>
       </c>
     </row>
@@ -7170,15 +7191,15 @@
         <v>500</v>
       </c>
       <c r="F54">
-        <f>(D54-A54)</f>
+        <f t="shared" si="5"/>
         <v>-28.210000000000036</v>
       </c>
       <c r="G54">
-        <f>ABS(D54-A54)</f>
+        <f t="shared" si="6"/>
         <v>28.210000000000036</v>
       </c>
       <c r="I54" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>795.80410000000211</v>
       </c>
     </row>
@@ -7196,15 +7217,15 @@
         <v>500</v>
       </c>
       <c r="F55">
-        <f>(D55-A55)</f>
+        <f t="shared" si="5"/>
         <v>-32.379999999999995</v>
       </c>
       <c r="G55">
-        <f>ABS(D55-A55)</f>
+        <f t="shared" si="6"/>
         <v>32.379999999999995</v>
       </c>
       <c r="I55" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1048.4643999999996</v>
       </c>
     </row>
@@ -7222,15 +7243,15 @@
         <v>500</v>
       </c>
       <c r="F56">
-        <f>(D56-A56)</f>
+        <f t="shared" si="5"/>
         <v>-34.159999999999968</v>
       </c>
       <c r="G56">
-        <f>ABS(D56-A56)</f>
+        <f t="shared" si="6"/>
         <v>34.159999999999968</v>
       </c>
       <c r="I56" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1166.9055999999978</v>
       </c>
     </row>
@@ -7248,15 +7269,15 @@
         <v>500</v>
       </c>
       <c r="F57">
-        <f>(D57-A57)</f>
+        <f t="shared" si="5"/>
         <v>-33.75</v>
       </c>
       <c r="G57">
-        <f>ABS(D57-A57)</f>
+        <f t="shared" si="6"/>
         <v>33.75</v>
       </c>
       <c r="I57" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1139.0625</v>
       </c>
     </row>
@@ -7274,15 +7295,15 @@
         <v>500</v>
       </c>
       <c r="F58">
-        <f>(D58-A58)</f>
+        <f t="shared" si="5"/>
         <v>-31.860000000000014</v>
       </c>
       <c r="G58">
-        <f>ABS(D58-A58)</f>
+        <f t="shared" si="6"/>
         <v>31.860000000000014</v>
       </c>
       <c r="I58" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1015.0596000000008</v>
       </c>
     </row>
@@ -7300,15 +7321,15 @@
         <v>500</v>
       </c>
       <c r="F59">
-        <f>(D59-A59)</f>
+        <f t="shared" si="5"/>
         <v>-28.830000000000041</v>
       </c>
       <c r="G59">
-        <f>ABS(D59-A59)</f>
+        <f t="shared" si="6"/>
         <v>28.830000000000041</v>
       </c>
       <c r="I59" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>831.1689000000024</v>
       </c>
     </row>
@@ -7326,15 +7347,15 @@
         <v>500</v>
       </c>
       <c r="F60">
-        <f>(D60-A60)</f>
+        <f t="shared" si="5"/>
         <v>-24.990000000000009</v>
       </c>
       <c r="G60">
-        <f>ABS(D60-A60)</f>
+        <f t="shared" si="6"/>
         <v>24.990000000000009</v>
       </c>
       <c r="I60" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>624.50010000000043</v>
       </c>
     </row>
@@ -7352,15 +7373,15 @@
         <v>500</v>
       </c>
       <c r="F61">
-        <f>(D61-A61)</f>
+        <f t="shared" si="5"/>
         <v>-20.700000000000045</v>
       </c>
       <c r="G61">
-        <f>ABS(D61-A61)</f>
+        <f t="shared" si="6"/>
         <v>20.700000000000045</v>
       </c>
       <c r="I61" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>428.49000000000188</v>
       </c>
     </row>
@@ -7378,15 +7399,15 @@
         <v>500</v>
       </c>
       <c r="F62">
-        <f>(D62-A62)</f>
+        <f t="shared" si="5"/>
         <v>-16.590000000000032</v>
       </c>
       <c r="G62">
-        <f>ABS(D62-A62)</f>
+        <f t="shared" si="6"/>
         <v>16.590000000000032</v>
       </c>
       <c r="I62" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>275.22810000000106</v>
       </c>
     </row>
@@ -7404,15 +7425,15 @@
         <v>500</v>
       </c>
       <c r="F63">
-        <f>(D63-A63)</f>
+        <f t="shared" si="5"/>
         <v>-12.419999999999959</v>
       </c>
       <c r="G63">
-        <f>ABS(D63-A63)</f>
+        <f t="shared" si="6"/>
         <v>12.419999999999959</v>
       </c>
       <c r="I63" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>154.25639999999899</v>
       </c>
     </row>
@@ -7430,15 +7451,15 @@
         <v>500</v>
       </c>
       <c r="F64">
-        <f>(D64-A64)</f>
+        <f t="shared" si="5"/>
         <v>-8.5699999999999932</v>
       </c>
       <c r="G64">
-        <f>ABS(D64-A64)</f>
+        <f t="shared" si="6"/>
         <v>8.5699999999999932</v>
       </c>
       <c r="I64" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>73.444899999999876</v>
       </c>
     </row>
@@ -7456,15 +7477,15 @@
         <v>500</v>
       </c>
       <c r="F65">
-        <f>(D65-A65)</f>
+        <f t="shared" si="5"/>
         <v>-5.0500000000000114</v>
       </c>
       <c r="G65">
-        <f>ABS(D65-A65)</f>
+        <f t="shared" si="6"/>
         <v>5.0500000000000114</v>
       </c>
       <c r="I65" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25.502500000000115</v>
       </c>
     </row>
@@ -7482,15 +7503,15 @@
         <v>500</v>
       </c>
       <c r="F66">
-        <f>(D66-A66)</f>
+        <f t="shared" si="5"/>
         <v>-2.0099999999999909</v>
       </c>
       <c r="G66">
-        <f>ABS(D66-A66)</f>
+        <f t="shared" si="6"/>
         <v>2.0099999999999909</v>
       </c>
       <c r="I66" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0400999999999634</v>
       </c>
     </row>
@@ -7508,15 +7529,15 @@
         <v>500</v>
       </c>
       <c r="F67">
-        <f>(D67-A67)</f>
+        <f t="shared" si="5"/>
         <v>0.56999999999999318</v>
       </c>
       <c r="G67">
-        <f>ABS(D67-A67)</f>
+        <f t="shared" si="6"/>
         <v>0.56999999999999318</v>
       </c>
       <c r="I67" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.32489999999999225</v>
       </c>
     </row>
@@ -7534,15 +7555,15 @@
         <v>500</v>
       </c>
       <c r="F68">
-        <f>(D68-A68)</f>
+        <f t="shared" si="5"/>
         <v>2.7200000000000273</v>
       </c>
       <c r="G68">
-        <f>ABS(D68-A68)</f>
+        <f t="shared" si="6"/>
         <v>2.7200000000000273</v>
       </c>
       <c r="I68" s="4">
-        <f t="shared" ref="I68:I131" si="1">F68*F68</f>
+        <f t="shared" ref="I68:I131" si="7">F68*F68</f>
         <v>7.3984000000001489</v>
       </c>
     </row>
@@ -7560,15 +7581,15 @@
         <v>500</v>
       </c>
       <c r="F69">
-        <f>(D69-A69)</f>
+        <f t="shared" si="5"/>
         <v>4.410000000000025</v>
       </c>
       <c r="G69">
-        <f>ABS(D69-A69)</f>
+        <f t="shared" si="6"/>
         <v>4.410000000000025</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>19.44810000000022</v>
       </c>
     </row>
@@ -7586,15 +7607,15 @@
         <v>500</v>
       </c>
       <c r="F70">
-        <f>(D70-A70)</f>
+        <f t="shared" si="5"/>
         <v>5.7300000000000182</v>
       </c>
       <c r="G70">
-        <f>ABS(D70-A70)</f>
+        <f t="shared" si="6"/>
         <v>5.7300000000000182</v>
       </c>
       <c r="I70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>32.832900000000208</v>
       </c>
     </row>
@@ -7612,15 +7633,15 @@
         <v>500</v>
       </c>
       <c r="F71">
-        <f>(D71-A71)</f>
+        <f t="shared" si="5"/>
         <v>6.6299999999999955</v>
       </c>
       <c r="G71">
-        <f>ABS(D71-A71)</f>
+        <f t="shared" si="6"/>
         <v>6.6299999999999955</v>
       </c>
       <c r="I71" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>43.956899999999941</v>
       </c>
     </row>
@@ -7638,15 +7659,15 @@
         <v>500</v>
       </c>
       <c r="F72">
-        <f>(D72-A72)</f>
+        <f t="shared" si="5"/>
         <v>7.1999999999999886</v>
       </c>
       <c r="G72">
-        <f>ABS(D72-A72)</f>
+        <f t="shared" si="6"/>
         <v>7.1999999999999886</v>
       </c>
       <c r="I72" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>51.839999999999833</v>
       </c>
     </row>
@@ -7664,15 +7685,15 @@
         <v>500</v>
       </c>
       <c r="F73">
-        <f>(D73-A73)</f>
+        <f t="shared" si="5"/>
         <v>7.4900000000000091</v>
       </c>
       <c r="G73">
-        <f>ABS(D73-A73)</f>
+        <f t="shared" si="6"/>
         <v>7.4900000000000091</v>
       </c>
       <c r="I73" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>56.10010000000014</v>
       </c>
     </row>
@@ -7690,15 +7711,15 @@
         <v>500</v>
       </c>
       <c r="F74">
-        <f>(D74-A74)</f>
+        <f t="shared" si="5"/>
         <v>7.5600000000000023</v>
       </c>
       <c r="G74">
-        <f>ABS(D74-A74)</f>
+        <f t="shared" si="6"/>
         <v>7.5600000000000023</v>
       </c>
       <c r="I74" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>57.153600000000033</v>
       </c>
     </row>
@@ -7716,15 +7737,15 @@
         <v>500</v>
       </c>
       <c r="F75">
-        <f>(D75-A75)</f>
+        <f t="shared" si="5"/>
         <v>7.4200000000000159</v>
       </c>
       <c r="G75">
-        <f>ABS(D75-A75)</f>
+        <f t="shared" si="6"/>
         <v>7.4200000000000159</v>
       </c>
       <c r="I75" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>55.056400000000238</v>
       </c>
     </row>
@@ -7742,15 +7763,15 @@
         <v>500</v>
       </c>
       <c r="F76">
-        <f>(D76-A76)</f>
+        <f t="shared" si="5"/>
         <v>7.1800000000000068</v>
       </c>
       <c r="G76">
-        <f>ABS(D76-A76)</f>
+        <f t="shared" si="6"/>
         <v>7.1800000000000068</v>
       </c>
       <c r="I76" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>51.552400000000098</v>
       </c>
     </row>
@@ -7768,15 +7789,15 @@
         <v>500</v>
       </c>
       <c r="F77">
-        <f>(D77-A77)</f>
+        <f t="shared" si="5"/>
         <v>6.839999999999975</v>
       </c>
       <c r="G77">
-        <f>ABS(D77-A77)</f>
+        <f t="shared" si="6"/>
         <v>6.839999999999975</v>
       </c>
       <c r="I77" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>46.785599999999661</v>
       </c>
     </row>
@@ -7794,15 +7815,15 @@
         <v>500</v>
       </c>
       <c r="F78">
-        <f>(D78-A78)</f>
+        <f t="shared" si="5"/>
         <v>6.4499999999999886</v>
       </c>
       <c r="G78">
-        <f>ABS(D78-A78)</f>
+        <f t="shared" si="6"/>
         <v>6.4499999999999886</v>
       </c>
       <c r="I78" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>41.60249999999985</v>
       </c>
     </row>
@@ -7820,15 +7841,15 @@
         <v>500</v>
       </c>
       <c r="F79">
-        <f>(D79-A79)</f>
+        <f t="shared" si="5"/>
         <v>6.0500000000000114</v>
       </c>
       <c r="G79">
-        <f>ABS(D79-A79)</f>
+        <f t="shared" si="6"/>
         <v>6.0500000000000114</v>
       </c>
       <c r="I79" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>36.602500000000134</v>
       </c>
     </row>
@@ -7846,15 +7867,15 @@
         <v>500</v>
       </c>
       <c r="F80">
-        <f>(D80-A80)</f>
+        <f t="shared" si="5"/>
         <v>5.6499999999999773</v>
       </c>
       <c r="G80">
-        <f>ABS(D80-A80)</f>
+        <f t="shared" si="6"/>
         <v>5.6499999999999773</v>
       </c>
       <c r="I80" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>31.922499999999744</v>
       </c>
     </row>
@@ -7872,15 +7893,15 @@
         <v>500</v>
       </c>
       <c r="F81">
-        <f>(D81-A81)</f>
+        <f t="shared" si="5"/>
         <v>5.25</v>
       </c>
       <c r="G81">
-        <f>ABS(D81-A81)</f>
+        <f t="shared" si="6"/>
         <v>5.25</v>
       </c>
       <c r="I81" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>27.5625</v>
       </c>
     </row>
@@ -7898,15 +7919,15 @@
         <v>500</v>
       </c>
       <c r="F82">
-        <f>(D82-A82)</f>
+        <f t="shared" si="5"/>
         <v>4.8899999999999864</v>
       </c>
       <c r="G82">
-        <f>ABS(D82-A82)</f>
+        <f t="shared" si="6"/>
         <v>4.8899999999999864</v>
       </c>
       <c r="I82" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>23.912099999999867</v>
       </c>
     </row>
@@ -7924,15 +7945,15 @@
         <v>500</v>
       </c>
       <c r="F83">
-        <f>(D83-A83)</f>
+        <f t="shared" si="5"/>
         <v>4.5299999999999727</v>
       </c>
       <c r="G83">
-        <f>ABS(D83-A83)</f>
+        <f t="shared" si="6"/>
         <v>4.5299999999999727</v>
       </c>
       <c r="I83" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>20.520899999999752</v>
       </c>
     </row>
@@ -7950,15 +7971,15 @@
         <v>500</v>
       </c>
       <c r="F84">
-        <f>(D84-A84)</f>
+        <f t="shared" si="5"/>
         <v>4.2400000000000091</v>
       </c>
       <c r="G84">
-        <f>ABS(D84-A84)</f>
+        <f t="shared" si="6"/>
         <v>4.2400000000000091</v>
       </c>
       <c r="I84" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>17.977600000000077</v>
       </c>
     </row>
@@ -7976,15 +7997,15 @@
         <v>500</v>
       </c>
       <c r="F85">
-        <f>(D85-A85)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G85">
-        <f>ABS(D85-A85)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I85" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
     </row>
@@ -8002,15 +8023,15 @@
         <v>500</v>
       </c>
       <c r="F86">
-        <f>(D86-A86)</f>
+        <f t="shared" si="5"/>
         <v>3.8000000000000114</v>
       </c>
       <c r="G86">
-        <f>ABS(D86-A86)</f>
+        <f t="shared" si="6"/>
         <v>3.8000000000000114</v>
       </c>
       <c r="I86" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>14.440000000000087</v>
       </c>
     </row>
@@ -8028,15 +8049,15 @@
         <v>500</v>
       </c>
       <c r="F87">
-        <f>(D87-A87)</f>
+        <f t="shared" si="5"/>
         <v>3.6399999999999864</v>
       </c>
       <c r="G87">
-        <f>ABS(D87-A87)</f>
+        <f t="shared" si="6"/>
         <v>3.6399999999999864</v>
       </c>
       <c r="I87" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>13.249599999999901</v>
       </c>
     </row>
@@ -8054,15 +8075,15 @@
         <v>500</v>
       </c>
       <c r="F88">
-        <f>(D88-A88)</f>
+        <f t="shared" si="5"/>
         <v>3.5199999999999818</v>
       </c>
       <c r="G88">
-        <f>ABS(D88-A88)</f>
+        <f t="shared" si="6"/>
         <v>3.5199999999999818</v>
       </c>
       <c r="I88" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>12.390399999999872</v>
       </c>
     </row>
@@ -8080,15 +8101,15 @@
         <v>500</v>
       </c>
       <c r="F89">
-        <f>(D89-A89)</f>
+        <f t="shared" si="5"/>
         <v>3.4399999999999977</v>
       </c>
       <c r="G89">
-        <f>ABS(D89-A89)</f>
+        <f t="shared" si="6"/>
         <v>3.4399999999999977</v>
       </c>
       <c r="I89" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>11.833599999999985</v>
       </c>
     </row>
@@ -8106,15 +8127,15 @@
         <v>500</v>
       </c>
       <c r="F90">
-        <f>(D90-A90)</f>
+        <f t="shared" si="5"/>
         <v>3.3899999999999864</v>
       </c>
       <c r="G90">
-        <f>ABS(D90-A90)</f>
+        <f t="shared" si="6"/>
         <v>3.3899999999999864</v>
       </c>
       <c r="I90" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>11.492099999999908</v>
       </c>
     </row>
@@ -8132,15 +8153,15 @@
         <v>500</v>
       </c>
       <c r="F91">
-        <f>(D91-A91)</f>
+        <f t="shared" si="5"/>
         <v>3.3799999999999955</v>
       </c>
       <c r="G91">
-        <f>ABS(D91-A91)</f>
+        <f t="shared" si="6"/>
         <v>3.3799999999999955</v>
       </c>
       <c r="I91" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>11.42439999999997</v>
       </c>
     </row>
@@ -8158,15 +8179,15 @@
         <v>500</v>
       </c>
       <c r="F92">
-        <f>(D92-A92)</f>
+        <f t="shared" si="5"/>
         <v>3.3600000000000136</v>
       </c>
       <c r="G92">
-        <f>ABS(D92-A92)</f>
+        <f t="shared" si="6"/>
         <v>3.3600000000000136</v>
       </c>
       <c r="I92" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>11.289600000000092</v>
       </c>
     </row>
@@ -8184,15 +8205,15 @@
         <v>500</v>
       </c>
       <c r="F93">
-        <f>(D93-A93)</f>
+        <f t="shared" si="5"/>
         <v>3.3299999999999841</v>
       </c>
       <c r="G93">
-        <f>ABS(D93-A93)</f>
+        <f t="shared" si="6"/>
         <v>3.3299999999999841</v>
       </c>
       <c r="I93" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>11.088899999999894</v>
       </c>
     </row>
@@ -8210,15 +8231,15 @@
         <v>500</v>
       </c>
       <c r="F94">
-        <f>(D94-A94)</f>
+        <f t="shared" si="5"/>
         <v>3.3299999999999841</v>
       </c>
       <c r="G94">
-        <f>ABS(D94-A94)</f>
+        <f t="shared" si="6"/>
         <v>3.3299999999999841</v>
       </c>
       <c r="I94" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>11.088899999999894</v>
       </c>
     </row>
@@ -8236,15 +8257,15 @@
         <v>500</v>
       </c>
       <c r="F95">
-        <f>(D95-A95)</f>
+        <f t="shared" si="5"/>
         <v>3.3600000000000136</v>
       </c>
       <c r="G95">
-        <f>ABS(D95-A95)</f>
+        <f t="shared" si="6"/>
         <v>3.3600000000000136</v>
       </c>
       <c r="I95" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>11.289600000000092</v>
       </c>
     </row>
@@ -8262,15 +8283,15 @@
         <v>500</v>
       </c>
       <c r="F96">
-        <f>(D96-A96)</f>
+        <f t="shared" si="5"/>
         <v>3.410000000000025</v>
       </c>
       <c r="G96">
-        <f>ABS(D96-A96)</f>
+        <f t="shared" si="6"/>
         <v>3.410000000000025</v>
       </c>
       <c r="I96" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>11.62810000000017</v>
       </c>
     </row>
@@ -8288,15 +8309,15 @@
         <v>500</v>
       </c>
       <c r="F97">
-        <f>(D97-A97)</f>
+        <f t="shared" si="5"/>
         <v>3.8899999999999864</v>
       </c>
       <c r="G97">
-        <f>ABS(D97-A97)</f>
+        <f t="shared" si="6"/>
         <v>3.8899999999999864</v>
       </c>
       <c r="I97" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>15.132099999999895</v>
       </c>
     </row>
@@ -8314,15 +8335,15 @@
         <v>500</v>
       </c>
       <c r="F98">
-        <f>(D98-A98)</f>
+        <f t="shared" si="5"/>
         <v>5.3999999999999773</v>
       </c>
       <c r="G98">
-        <f>ABS(D98-A98)</f>
+        <f t="shared" si="6"/>
         <v>5.3999999999999773</v>
       </c>
       <c r="I98" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>29.159999999999755</v>
       </c>
     </row>
@@ -8340,15 +8361,15 @@
         <v>500</v>
       </c>
       <c r="F99">
-        <f>(E99-B99)</f>
+        <f t="shared" ref="F99:F145" si="8">(E99-B99)</f>
         <v>-3.4900000000000091</v>
       </c>
       <c r="G99">
-        <f>ABS(E99-B99)</f>
+        <f t="shared" ref="G99:G145" si="9">ABS(E99-B99)</f>
         <v>3.4900000000000091</v>
       </c>
       <c r="I99" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>12.180100000000063</v>
       </c>
     </row>
@@ -8366,15 +8387,15 @@
         <v>500</v>
       </c>
       <c r="F100">
-        <f>(E100-B100)</f>
+        <f t="shared" si="8"/>
         <v>-13.990000000000009</v>
       </c>
       <c r="G100">
-        <f>ABS(E100-B100)</f>
+        <f t="shared" si="9"/>
         <v>13.990000000000009</v>
       </c>
       <c r="I100" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>195.72010000000026</v>
       </c>
     </row>
@@ -8392,15 +8413,15 @@
         <v>500</v>
       </c>
       <c r="F101">
-        <f>(E101-B101)</f>
+        <f t="shared" si="8"/>
         <v>-22.710000000000036</v>
       </c>
       <c r="G101">
-        <f>ABS(E101-B101)</f>
+        <f t="shared" si="9"/>
         <v>22.710000000000036</v>
       </c>
       <c r="I101" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>515.74410000000171</v>
       </c>
     </row>
@@ -8418,15 +8439,15 @@
         <v>500</v>
       </c>
       <c r="F102">
-        <f>(E102-B102)</f>
+        <f t="shared" si="8"/>
         <v>-29.159999999999968</v>
       </c>
       <c r="G102">
-        <f>ABS(E102-B102)</f>
+        <f t="shared" si="9"/>
         <v>29.159999999999968</v>
       </c>
       <c r="I102" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>850.30559999999809</v>
       </c>
     </row>
@@ -8444,15 +8465,15 @@
         <v>500</v>
       </c>
       <c r="F103">
-        <f>(E103-B103)</f>
+        <f t="shared" si="8"/>
         <v>-33.409999999999968</v>
       </c>
       <c r="G103">
-        <f>ABS(E103-B103)</f>
+        <f t="shared" si="9"/>
         <v>33.409999999999968</v>
       </c>
       <c r="I103" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1116.2280999999978</v>
       </c>
     </row>
@@ -8470,15 +8491,15 @@
         <v>500</v>
       </c>
       <c r="F104">
-        <f>(E104-B104)</f>
+        <f t="shared" si="8"/>
         <v>-35.169999999999959</v>
       </c>
       <c r="G104">
-        <f>ABS(E104-B104)</f>
+        <f t="shared" si="9"/>
         <v>35.169999999999959</v>
       </c>
       <c r="I104" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1236.9288999999972</v>
       </c>
     </row>
@@ -8496,15 +8517,15 @@
         <v>500</v>
       </c>
       <c r="F105">
-        <f>(E105-B105)</f>
+        <f t="shared" si="8"/>
         <v>-34.769999999999982</v>
       </c>
       <c r="G105">
-        <f>ABS(E105-B105)</f>
+        <f t="shared" si="9"/>
         <v>34.769999999999982</v>
       </c>
       <c r="I105" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1208.9528999999986</v>
       </c>
     </row>
@@ -8522,15 +8543,15 @@
         <v>500</v>
       </c>
       <c r="F106">
-        <f>(E106-B106)</f>
+        <f t="shared" si="8"/>
         <v>-32.950000000000045</v>
       </c>
       <c r="G106">
-        <f>ABS(E106-B106)</f>
+        <f t="shared" si="9"/>
         <v>32.950000000000045</v>
       </c>
       <c r="I106" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1085.7025000000031</v>
       </c>
     </row>
@@ -8548,15 +8569,15 @@
         <v>500</v>
       </c>
       <c r="F107">
-        <f>(E107-B107)</f>
+        <f t="shared" si="8"/>
         <v>-29.960000000000036</v>
       </c>
       <c r="G107">
-        <f>ABS(E107-B107)</f>
+        <f t="shared" si="9"/>
         <v>29.960000000000036</v>
       </c>
       <c r="I107" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>897.60160000000224</v>
       </c>
     </row>
@@ -8574,15 +8595,15 @@
         <v>500</v>
       </c>
       <c r="F108">
-        <f>(E108-B108)</f>
+        <f t="shared" si="8"/>
         <v>-26.17999999999995</v>
       </c>
       <c r="G108">
-        <f>ABS(E108-B108)</f>
+        <f t="shared" si="9"/>
         <v>26.17999999999995</v>
       </c>
       <c r="I108" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>685.39239999999734</v>
       </c>
     </row>
@@ -8600,15 +8621,15 @@
         <v>500</v>
       </c>
       <c r="F109">
-        <f>(E109-B109)</f>
+        <f t="shared" si="8"/>
         <v>-22.100000000000023</v>
       </c>
       <c r="G109">
-        <f>ABS(E109-B109)</f>
+        <f t="shared" si="9"/>
         <v>22.100000000000023</v>
       </c>
       <c r="I109" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>488.41000000000099</v>
       </c>
     </row>
@@ -8626,15 +8647,15 @@
         <v>500</v>
       </c>
       <c r="F110">
-        <f>(E110-B110)</f>
+        <f t="shared" si="8"/>
         <v>-17.980000000000018</v>
       </c>
       <c r="G110">
-        <f>ABS(E110-B110)</f>
+        <f t="shared" si="9"/>
         <v>17.980000000000018</v>
       </c>
       <c r="I110" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>323.28040000000067</v>
       </c>
     </row>
@@ -8652,15 +8673,15 @@
         <v>500</v>
       </c>
       <c r="F111">
-        <f>(E111-B111)</f>
+        <f t="shared" si="8"/>
         <v>-14.080000000000041</v>
       </c>
       <c r="G111">
-        <f>ABS(E111-B111)</f>
+        <f t="shared" si="9"/>
         <v>14.080000000000041</v>
       </c>
       <c r="I111" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>198.24640000000116</v>
       </c>
     </row>
@@ -8678,15 +8699,15 @@
         <v>500</v>
       </c>
       <c r="F112">
-        <f>(E112-B112)</f>
+        <f t="shared" si="8"/>
         <v>-10.310000000000002</v>
       </c>
       <c r="G112">
-        <f>ABS(E112-B112)</f>
+        <f t="shared" si="9"/>
         <v>10.310000000000002</v>
       </c>
       <c r="I112" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>106.29610000000005</v>
       </c>
     </row>
@@ -8704,15 +8725,15 @@
         <v>500</v>
       </c>
       <c r="F113">
-        <f>(E113-B113)</f>
+        <f t="shared" si="8"/>
         <v>-6.9300000000000068</v>
       </c>
       <c r="G113">
-        <f>ABS(E113-B113)</f>
+        <f t="shared" si="9"/>
         <v>6.9300000000000068</v>
       </c>
       <c r="I113" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>48.024900000000095</v>
       </c>
     </row>
@@ -8730,15 +8751,15 @@
         <v>500</v>
       </c>
       <c r="F114">
-        <f>(E114-B114)</f>
+        <f t="shared" si="8"/>
         <v>-3.9599999999999795</v>
       </c>
       <c r="G114">
-        <f>ABS(E114-B114)</f>
+        <f t="shared" si="9"/>
         <v>3.9599999999999795</v>
       </c>
       <c r="I114" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>15.681599999999838</v>
       </c>
     </row>
@@ -8756,15 +8777,15 @@
         <v>500</v>
       </c>
       <c r="F115">
-        <f>(E115-B115)</f>
+        <f t="shared" si="8"/>
         <v>-1.4399999999999977</v>
       </c>
       <c r="G115">
-        <f>ABS(E115-B115)</f>
+        <f t="shared" si="9"/>
         <v>1.4399999999999977</v>
       </c>
       <c r="I115" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.0735999999999937</v>
       </c>
     </row>
@@ -8782,15 +8803,15 @@
         <v>500</v>
       </c>
       <c r="F116">
-        <f>(E116-B116)</f>
+        <f t="shared" si="8"/>
         <v>0.57999999999998408</v>
       </c>
       <c r="G116">
-        <f>ABS(E116-B116)</f>
+        <f t="shared" si="9"/>
         <v>0.57999999999998408</v>
       </c>
       <c r="I116" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.33639999999998155</v>
       </c>
     </row>
@@ -8808,15 +8829,15 @@
         <v>500</v>
       </c>
       <c r="F117">
-        <f>(E117-B117)</f>
+        <f t="shared" si="8"/>
         <v>2.2900000000000205</v>
       </c>
       <c r="G117">
-        <f>ABS(E117-B117)</f>
+        <f t="shared" si="9"/>
         <v>2.2900000000000205</v>
       </c>
       <c r="I117" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5.2441000000000937</v>
       </c>
     </row>
@@ -8834,15 +8855,15 @@
         <v>500</v>
       </c>
       <c r="F118">
-        <f>(E118-B118)</f>
+        <f t="shared" si="8"/>
         <v>3.6399999999999864</v>
       </c>
       <c r="G118">
-        <f>ABS(E118-B118)</f>
+        <f t="shared" si="9"/>
         <v>3.6399999999999864</v>
       </c>
       <c r="I118" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>13.249599999999901</v>
       </c>
     </row>
@@ -8860,15 +8881,15 @@
         <v>500</v>
       </c>
       <c r="F119">
-        <f>(E119-B119)</f>
+        <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
       <c r="G119">
-        <f>ABS(E119-B119)</f>
+        <f t="shared" si="9"/>
         <v>4.5</v>
       </c>
       <c r="I119" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>20.25</v>
       </c>
     </row>
@@ -8886,15 +8907,15 @@
         <v>500</v>
       </c>
       <c r="F120">
-        <f>(E120-B120)</f>
+        <f t="shared" si="8"/>
         <v>5.0799999999999841</v>
       </c>
       <c r="G120">
-        <f>ABS(E120-B120)</f>
+        <f t="shared" si="9"/>
         <v>5.0799999999999841</v>
       </c>
       <c r="I120" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>25.806399999999837</v>
       </c>
     </row>
@@ -8912,15 +8933,15 @@
         <v>500</v>
       </c>
       <c r="F121">
-        <f>(E121-B121)</f>
+        <f t="shared" si="8"/>
         <v>5.4599999999999795</v>
       </c>
       <c r="G121">
-        <f>ABS(E121-B121)</f>
+        <f t="shared" si="9"/>
         <v>5.4599999999999795</v>
       </c>
       <c r="I121" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>29.811599999999778</v>
       </c>
     </row>
@@ -8938,15 +8959,15 @@
         <v>500</v>
       </c>
       <c r="F122">
-        <f>(E122-B122)</f>
+        <f t="shared" si="8"/>
         <v>5.5699999999999932</v>
       </c>
       <c r="G122">
-        <f>ABS(E122-B122)</f>
+        <f t="shared" si="9"/>
         <v>5.5699999999999932</v>
       </c>
       <c r="I122" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>31.024899999999924</v>
       </c>
     </row>
@@ -8964,15 +8985,15 @@
         <v>500</v>
       </c>
       <c r="F123">
-        <f>(E123-B123)</f>
+        <f t="shared" si="8"/>
         <v>5.5199999999999818</v>
       </c>
       <c r="G123">
-        <f>ABS(E123-B123)</f>
+        <f t="shared" si="9"/>
         <v>5.5199999999999818</v>
       </c>
       <c r="I123" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>30.470399999999799</v>
       </c>
     </row>
@@ -8990,15 +9011,15 @@
         <v>500</v>
       </c>
       <c r="F124">
-        <f>(E124-B124)</f>
+        <f t="shared" si="8"/>
         <v>5.2900000000000205</v>
       </c>
       <c r="G124">
-        <f>ABS(E124-B124)</f>
+        <f t="shared" si="9"/>
         <v>5.2900000000000205</v>
       </c>
       <c r="I124" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>27.984100000000218</v>
       </c>
     </row>
@@ -9016,15 +9037,15 @@
         <v>500</v>
       </c>
       <c r="F125">
-        <f>(E125-B125)</f>
+        <f t="shared" si="8"/>
         <v>4.9499999999999886</v>
       </c>
       <c r="G125">
-        <f>ABS(E125-B125)</f>
+        <f t="shared" si="9"/>
         <v>4.9499999999999886</v>
       </c>
       <c r="I125" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>24.502499999999888</v>
       </c>
     </row>
@@ -9042,15 +9063,15 @@
         <v>500</v>
       </c>
       <c r="F126">
-        <f>(E126-B126)</f>
+        <f t="shared" si="8"/>
         <v>4.6000000000000227</v>
       </c>
       <c r="G126">
-        <f>ABS(E126-B126)</f>
+        <f t="shared" si="9"/>
         <v>4.6000000000000227</v>
       </c>
       <c r="I126" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>21.16000000000021</v>
       </c>
     </row>
@@ -9068,15 +9089,15 @@
         <v>500</v>
       </c>
       <c r="F127">
-        <f>(E127-B127)</f>
+        <f t="shared" si="8"/>
         <v>4.1899999999999977</v>
       </c>
       <c r="G127">
-        <f>ABS(E127-B127)</f>
+        <f t="shared" si="9"/>
         <v>4.1899999999999977</v>
       </c>
       <c r="I127" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>17.556099999999979</v>
       </c>
     </row>
@@ -9094,15 +9115,15 @@
         <v>500</v>
       </c>
       <c r="F128">
-        <f>(E128-B128)</f>
+        <f t="shared" si="8"/>
         <v>3.8000000000000114</v>
       </c>
       <c r="G128">
-        <f>ABS(E128-B128)</f>
+        <f t="shared" si="9"/>
         <v>3.8000000000000114</v>
       </c>
       <c r="I128" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>14.440000000000087</v>
       </c>
     </row>
@@ -9120,15 +9141,15 @@
         <v>500</v>
       </c>
       <c r="F129">
-        <f>(E129-B129)</f>
+        <f t="shared" si="8"/>
         <v>3.410000000000025</v>
       </c>
       <c r="G129">
-        <f>ABS(E129-B129)</f>
+        <f t="shared" si="9"/>
         <v>3.410000000000025</v>
       </c>
       <c r="I129" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>11.62810000000017</v>
       </c>
     </row>
@@ -9146,15 +9167,15 @@
         <v>500</v>
       </c>
       <c r="F130">
-        <f>(E130-B130)</f>
+        <f t="shared" si="8"/>
         <v>3.0699999999999932</v>
       </c>
       <c r="G130">
-        <f>ABS(E130-B130)</f>
+        <f t="shared" si="9"/>
         <v>3.0699999999999932</v>
       </c>
       <c r="I130" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>9.4248999999999583</v>
       </c>
     </row>
@@ -9172,15 +9193,15 @@
         <v>500</v>
       </c>
       <c r="F131">
-        <f>(E131-B131)</f>
+        <f t="shared" si="8"/>
         <v>2.7400000000000091</v>
       </c>
       <c r="G131">
-        <f>ABS(E131-B131)</f>
+        <f t="shared" si="9"/>
         <v>2.7400000000000091</v>
       </c>
       <c r="I131" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>7.5076000000000498</v>
       </c>
     </row>
@@ -9198,15 +9219,15 @@
         <v>500</v>
       </c>
       <c r="F132">
-        <f>(E132-B132)</f>
+        <f t="shared" si="8"/>
         <v>2.4499999999999886</v>
       </c>
       <c r="G132">
-        <f>ABS(E132-B132)</f>
+        <f t="shared" si="9"/>
         <v>2.4499999999999886</v>
       </c>
       <c r="I132" s="4">
-        <f t="shared" ref="I132:I194" si="2">F132*F132</f>
+        <f t="shared" ref="I132:I194" si="10">F132*F132</f>
         <v>6.0024999999999444</v>
       </c>
     </row>
@@ -9224,15 +9245,15 @@
         <v>500</v>
       </c>
       <c r="F133">
-        <f>(E133-B133)</f>
+        <f t="shared" si="8"/>
         <v>2.1999999999999886</v>
       </c>
       <c r="G133">
-        <f>ABS(E133-B133)</f>
+        <f t="shared" si="9"/>
         <v>2.1999999999999886</v>
       </c>
       <c r="I133" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4.8399999999999501</v>
       </c>
     </row>
@@ -9250,15 +9271,15 @@
         <v>500</v>
       </c>
       <c r="F134">
-        <f>(E134-B134)</f>
+        <f t="shared" si="8"/>
         <v>2.0299999999999727</v>
       </c>
       <c r="G134">
-        <f>ABS(E134-B134)</f>
+        <f t="shared" si="9"/>
         <v>2.0299999999999727</v>
       </c>
       <c r="I134" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4.1208999999998897</v>
       </c>
     </row>
@@ -9276,15 +9297,15 @@
         <v>500</v>
       </c>
       <c r="F135">
-        <f>(E135-B135)</f>
+        <f t="shared" si="8"/>
         <v>1.8700000000000045</v>
       </c>
       <c r="G135">
-        <f>ABS(E135-B135)</f>
+        <f t="shared" si="9"/>
         <v>1.8700000000000045</v>
       </c>
       <c r="I135" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>3.496900000000017</v>
       </c>
     </row>
@@ -9302,15 +9323,15 @@
         <v>500</v>
       </c>
       <c r="F136">
-        <f>(E136-B136)</f>
+        <f t="shared" si="8"/>
         <v>1.7400000000000091</v>
       </c>
       <c r="G136">
-        <f>ABS(E136-B136)</f>
+        <f t="shared" si="9"/>
         <v>1.7400000000000091</v>
       </c>
       <c r="I136" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>3.0276000000000316</v>
       </c>
     </row>
@@ -9328,15 +9349,15 @@
         <v>500</v>
       </c>
       <c r="F137">
-        <f>(E137-B137)</f>
+        <f t="shared" si="8"/>
         <v>1.6399999999999864</v>
       </c>
       <c r="G137">
-        <f>ABS(E137-B137)</f>
+        <f t="shared" si="9"/>
         <v>1.6399999999999864</v>
       </c>
       <c r="I137" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.6895999999999551</v>
       </c>
     </row>
@@ -9354,15 +9375,15 @@
         <v>500</v>
       </c>
       <c r="F138">
-        <f>(E138-B138)</f>
+        <f t="shared" si="8"/>
         <v>1.5400000000000205</v>
       </c>
       <c r="G138">
-        <f>ABS(E138-B138)</f>
+        <f t="shared" si="9"/>
         <v>1.5400000000000205</v>
       </c>
       <c r="I138" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.371600000000063</v>
       </c>
     </row>
@@ -9380,15 +9401,15 @@
         <v>500</v>
       </c>
       <c r="F139">
-        <f>(E139-B139)</f>
+        <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
       <c r="G139">
-        <f>ABS(E139-B139)</f>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="I139" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.25</v>
       </c>
     </row>
@@ -9406,15 +9427,15 @@
         <v>500</v>
       </c>
       <c r="F140">
-        <f>(E140-B140)</f>
+        <f t="shared" si="8"/>
         <v>1.4900000000000091</v>
       </c>
       <c r="G140">
-        <f>ABS(E140-B140)</f>
+        <f t="shared" si="9"/>
         <v>1.4900000000000091</v>
       </c>
       <c r="I140" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.2201000000000271</v>
       </c>
     </row>
@@ -9432,15 +9453,15 @@
         <v>500</v>
       </c>
       <c r="F141">
-        <f>(E141-B141)</f>
+        <f t="shared" si="8"/>
         <v>1.4499999999999886</v>
       </c>
       <c r="G141">
-        <f>ABS(E141-B141)</f>
+        <f t="shared" si="9"/>
         <v>1.4499999999999886</v>
       </c>
       <c r="I141" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.1024999999999672</v>
       </c>
     </row>
@@ -9458,15 +9479,15 @@
         <v>500</v>
       </c>
       <c r="F142">
-        <f>(E142-B142)</f>
+        <f t="shared" si="8"/>
         <v>1.4300000000000068</v>
       </c>
       <c r="G142">
-        <f>ABS(E142-B142)</f>
+        <f t="shared" si="9"/>
         <v>1.4300000000000068</v>
       </c>
       <c r="I142" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.0449000000000197</v>
       </c>
     </row>
@@ -9484,15 +9505,15 @@
         <v>500</v>
       </c>
       <c r="F143">
-        <f>(E143-B143)</f>
+        <f t="shared" si="8"/>
         <v>1.4300000000000068</v>
       </c>
       <c r="G143">
-        <f>ABS(E143-B143)</f>
+        <f t="shared" si="9"/>
         <v>1.4300000000000068</v>
       </c>
       <c r="I143" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.0449000000000197</v>
       </c>
     </row>
@@ -9510,15 +9531,15 @@
         <v>500</v>
       </c>
       <c r="F144">
-        <f>(E144-B144)</f>
+        <f t="shared" si="8"/>
         <v>1.5600000000000023</v>
       </c>
       <c r="G144">
-        <f>ABS(E144-B144)</f>
+        <f t="shared" si="9"/>
         <v>1.5600000000000023</v>
       </c>
       <c r="I144" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.4336000000000073</v>
       </c>
     </row>
@@ -9536,15 +9557,15 @@
         <v>500</v>
       </c>
       <c r="F145">
-        <f>(E145-B145)</f>
+        <f t="shared" si="8"/>
         <v>2.2799999999999727</v>
       </c>
       <c r="G145">
-        <f>ABS(E145-B145)</f>
+        <f t="shared" si="9"/>
         <v>2.2799999999999727</v>
       </c>
       <c r="I145" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>5.198399999999876</v>
       </c>
     </row>
@@ -9562,15 +9583,15 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <f>(D146-A146)</f>
+        <f t="shared" ref="F146:F177" si="11">(D146-A146)</f>
         <v>-3.39</v>
       </c>
       <c r="G146">
-        <f>ABS(D146-A146)</f>
+        <f t="shared" ref="G146:G177" si="12">ABS(D146-A146)</f>
         <v>3.39</v>
       </c>
       <c r="I146" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>11.492100000000001</v>
       </c>
     </row>
@@ -9588,15 +9609,15 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <f>(D147-A147)</f>
+        <f t="shared" si="11"/>
         <v>7.59</v>
       </c>
       <c r="G147">
-        <f>ABS(D147-A147)</f>
+        <f t="shared" si="12"/>
         <v>7.59</v>
       </c>
       <c r="I147" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>57.6081</v>
       </c>
     </row>
@@ -9614,15 +9635,15 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <f>(D148-A148)</f>
+        <f t="shared" si="11"/>
         <v>17.45</v>
       </c>
       <c r="G148">
-        <f>ABS(D148-A148)</f>
+        <f t="shared" si="12"/>
         <v>17.45</v>
       </c>
       <c r="I148" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>304.5025</v>
       </c>
     </row>
@@ -9640,15 +9661,15 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <f>(D149-A149)</f>
+        <f t="shared" si="11"/>
         <v>25.52</v>
       </c>
       <c r="G149">
-        <f>ABS(D149-A149)</f>
+        <f t="shared" si="12"/>
         <v>25.52</v>
       </c>
       <c r="I149" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>651.2704</v>
       </c>
     </row>
@@ -9666,15 +9687,15 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <f>(D150-A150)</f>
+        <f t="shared" si="11"/>
         <v>31.13</v>
       </c>
       <c r="G150">
-        <f>ABS(D150-A150)</f>
+        <f t="shared" si="12"/>
         <v>31.13</v>
       </c>
       <c r="I150" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>969.07689999999991</v>
       </c>
     </row>
@@ -9692,15 +9713,15 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <f>(D151-A151)</f>
+        <f t="shared" si="11"/>
         <v>34.369999999999997</v>
       </c>
       <c r="G151">
-        <f>ABS(D151-A151)</f>
+        <f t="shared" si="12"/>
         <v>34.369999999999997</v>
       </c>
       <c r="I151" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1181.2968999999998</v>
       </c>
     </row>
@@ -9718,15 +9739,15 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <f>(D152-A152)</f>
+        <f t="shared" si="11"/>
         <v>35.19</v>
       </c>
       <c r="G152">
-        <f>ABS(D152-A152)</f>
+        <f t="shared" si="12"/>
         <v>35.19</v>
       </c>
       <c r="I152" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1238.3360999999998</v>
       </c>
     </row>
@@ -9744,15 +9765,15 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <f>(D153-A153)</f>
+        <f t="shared" si="11"/>
         <v>34.159999999999997</v>
       </c>
       <c r="G153">
-        <f>ABS(D153-A153)</f>
+        <f t="shared" si="12"/>
         <v>34.159999999999997</v>
       </c>
       <c r="I153" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1166.9055999999998</v>
       </c>
     </row>
@@ -9770,15 +9791,15 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <f>(D154-A154)</f>
+        <f t="shared" si="11"/>
         <v>31.97</v>
       </c>
       <c r="G154">
-        <f>ABS(D154-A154)</f>
+        <f t="shared" si="12"/>
         <v>31.97</v>
       </c>
       <c r="I154" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1022.0808999999999</v>
       </c>
     </row>
@@ -9796,15 +9817,15 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <f>(D155-A155)</f>
+        <f t="shared" si="11"/>
         <v>28.69</v>
       </c>
       <c r="G155">
-        <f>ABS(D155-A155)</f>
+        <f t="shared" si="12"/>
         <v>28.69</v>
       </c>
       <c r="I155" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>823.11610000000007</v>
       </c>
     </row>
@@ -9822,15 +9843,15 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <f>(D156-A156)</f>
+        <f t="shared" si="11"/>
         <v>24.62</v>
       </c>
       <c r="G156">
-        <f>ABS(D156-A156)</f>
+        <f t="shared" si="12"/>
         <v>24.62</v>
       </c>
       <c r="I156" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>606.14440000000002</v>
       </c>
     </row>
@@ -9848,15 +9869,15 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <f>(D157-A157)</f>
+        <f t="shared" si="11"/>
         <v>20.47</v>
       </c>
       <c r="G157">
-        <f>ABS(D157-A157)</f>
+        <f t="shared" si="12"/>
         <v>20.47</v>
       </c>
       <c r="I157" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>419.02089999999993</v>
       </c>
     </row>
@@ -9874,15 +9895,15 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <f>(D158-A158)</f>
+        <f t="shared" si="11"/>
         <v>16.239999999999998</v>
       </c>
       <c r="G158">
-        <f>ABS(D158-A158)</f>
+        <f t="shared" si="12"/>
         <v>16.239999999999998</v>
       </c>
       <c r="I158" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>263.73759999999993</v>
       </c>
     </row>
@@ -9900,15 +9921,15 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <f>(D159-A159)</f>
+        <f t="shared" si="11"/>
         <v>12.21</v>
       </c>
       <c r="G159">
-        <f>ABS(D159-A159)</f>
+        <f t="shared" si="12"/>
         <v>12.21</v>
       </c>
       <c r="I159" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>149.08410000000003</v>
       </c>
     </row>
@@ -9926,15 +9947,15 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <f>(D160-A160)</f>
+        <f t="shared" si="11"/>
         <v>8.4600000000000009</v>
       </c>
       <c r="G160">
-        <f>ABS(D160-A160)</f>
+        <f t="shared" si="12"/>
         <v>8.4600000000000009</v>
       </c>
       <c r="I160" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>71.571600000000018</v>
       </c>
     </row>
@@ -9952,15 +9973,15 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <f>(D161-A161)</f>
+        <f t="shared" si="11"/>
         <v>5.3</v>
       </c>
       <c r="G161">
-        <f>ABS(D161-A161)</f>
+        <f t="shared" si="12"/>
         <v>5.3</v>
       </c>
       <c r="I161" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>28.09</v>
       </c>
     </row>
@@ -9978,15 +9999,15 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <f>(D162-A162)</f>
+        <f t="shared" si="11"/>
         <v>2.41</v>
       </c>
       <c r="G162">
-        <f>ABS(D162-A162)</f>
+        <f t="shared" si="12"/>
         <v>2.41</v>
       </c>
       <c r="I162" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>5.8081000000000005</v>
       </c>
     </row>
@@ -10004,15 +10025,15 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <f>(D163-A163)</f>
+        <f t="shared" si="11"/>
         <v>-0.05</v>
       </c>
       <c r="G163">
-        <f>ABS(D163-A163)</f>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="I163" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.5000000000000005E-3</v>
       </c>
     </row>
@@ -10030,15 +10051,15 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <f>(D164-A164)</f>
+        <f t="shared" si="11"/>
         <v>-2.0499999999999998</v>
       </c>
       <c r="G164">
-        <f>ABS(D164-A164)</f>
+        <f t="shared" si="12"/>
         <v>2.0499999999999998</v>
       </c>
       <c r="I164" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4.2024999999999997</v>
       </c>
     </row>
@@ -10056,15 +10077,15 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <f>(D165-A165)</f>
+        <f t="shared" si="11"/>
         <v>-3.44</v>
       </c>
       <c r="G165">
-        <f>ABS(D165-A165)</f>
+        <f t="shared" si="12"/>
         <v>3.44</v>
       </c>
       <c r="I165" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>11.833599999999999</v>
       </c>
     </row>
@@ -10082,15 +10103,15 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <f>(D166-A166)</f>
+        <f t="shared" si="11"/>
         <v>-4.53</v>
       </c>
       <c r="G166">
-        <f>ABS(D166-A166)</f>
+        <f t="shared" si="12"/>
         <v>4.53</v>
       </c>
       <c r="I166" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>20.520900000000001</v>
       </c>
     </row>
@@ -10108,15 +10129,15 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <f>(D167-A167)</f>
+        <f t="shared" si="11"/>
         <v>-5.24</v>
       </c>
       <c r="G167">
-        <f>ABS(D167-A167)</f>
+        <f t="shared" si="12"/>
         <v>5.24</v>
       </c>
       <c r="I167" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>27.457600000000003</v>
       </c>
     </row>
@@ -10134,15 +10155,15 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <f>(D168-A168)</f>
+        <f t="shared" si="11"/>
         <v>-5.66</v>
       </c>
       <c r="G168">
-        <f>ABS(D168-A168)</f>
+        <f t="shared" si="12"/>
         <v>5.66</v>
       </c>
       <c r="I168" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>32.035600000000002</v>
       </c>
     </row>
@@ -10160,15 +10181,15 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <f>(D169-A169)</f>
+        <f t="shared" si="11"/>
         <v>-5.85</v>
       </c>
       <c r="G169">
-        <f>ABS(D169-A169)</f>
+        <f t="shared" si="12"/>
         <v>5.85</v>
       </c>
       <c r="I169" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>34.222499999999997</v>
       </c>
     </row>
@@ -10186,15 +10207,15 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <f>(D170-A170)</f>
+        <f t="shared" si="11"/>
         <v>-5.87</v>
       </c>
       <c r="G170">
-        <f>ABS(D170-A170)</f>
+        <f t="shared" si="12"/>
         <v>5.87</v>
       </c>
       <c r="I170" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>34.456900000000005</v>
       </c>
     </row>
@@ -10212,15 +10233,15 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <f>(D171-A171)</f>
+        <f t="shared" si="11"/>
         <v>-5.73</v>
       </c>
       <c r="G171">
-        <f>ABS(D171-A171)</f>
+        <f t="shared" si="12"/>
         <v>5.73</v>
       </c>
       <c r="I171" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>32.832900000000002</v>
       </c>
     </row>
@@ -10238,15 +10259,15 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <f>(D172-A172)</f>
+        <f t="shared" si="11"/>
         <v>-5.48</v>
       </c>
       <c r="G172">
-        <f>ABS(D172-A172)</f>
+        <f t="shared" si="12"/>
         <v>5.48</v>
       </c>
       <c r="I172" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>30.030400000000004</v>
       </c>
     </row>
@@ -10264,15 +10285,15 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <f>(D173-A173)</f>
+        <f t="shared" si="11"/>
         <v>-5.13</v>
       </c>
       <c r="G173">
-        <f>ABS(D173-A173)</f>
+        <f t="shared" si="12"/>
         <v>5.13</v>
       </c>
       <c r="I173" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>26.3169</v>
       </c>
     </row>
@@ -10290,15 +10311,15 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <f>(D174-A174)</f>
+        <f t="shared" si="11"/>
         <v>-4.7300000000000004</v>
       </c>
       <c r="G174">
-        <f>ABS(D174-A174)</f>
+        <f t="shared" si="12"/>
         <v>4.7300000000000004</v>
       </c>
       <c r="I174" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>22.372900000000005</v>
       </c>
     </row>
@@ -10316,15 +10337,15 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <f>(D175-A175)</f>
+        <f t="shared" si="11"/>
         <v>-4.28</v>
       </c>
       <c r="G175">
-        <f>ABS(D175-A175)</f>
+        <f t="shared" si="12"/>
         <v>4.28</v>
       </c>
       <c r="I175" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>18.3184</v>
       </c>
     </row>
@@ -10342,15 +10363,15 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <f>(D176-A176)</f>
+        <f t="shared" si="11"/>
         <v>-3.84</v>
       </c>
       <c r="G176">
-        <f>ABS(D176-A176)</f>
+        <f t="shared" si="12"/>
         <v>3.84</v>
       </c>
       <c r="I176" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>14.7456</v>
       </c>
     </row>
@@ -10368,15 +10389,15 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <f>(D177-A177)</f>
+        <f t="shared" si="11"/>
         <v>-3.45</v>
       </c>
       <c r="G177">
-        <f>ABS(D177-A177)</f>
+        <f t="shared" si="12"/>
         <v>3.45</v>
       </c>
       <c r="I177" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>11.902500000000002</v>
       </c>
     </row>
@@ -10394,15 +10415,15 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <f>(D178-A178)</f>
+        <f t="shared" ref="F178:F194" si="13">(D178-A178)</f>
         <v>-3.11</v>
       </c>
       <c r="G178">
-        <f>ABS(D178-A178)</f>
+        <f t="shared" ref="G178:G194" si="14">ABS(D178-A178)</f>
         <v>3.11</v>
       </c>
       <c r="I178" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>9.6720999999999986</v>
       </c>
     </row>
@@ -10420,15 +10441,15 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <f>(D179-A179)</f>
+        <f t="shared" si="13"/>
         <v>-2.76</v>
       </c>
       <c r="G179">
-        <f>ABS(D179-A179)</f>
+        <f t="shared" si="14"/>
         <v>2.76</v>
       </c>
       <c r="I179" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>7.6175999999999986</v>
       </c>
     </row>
@@ -10446,15 +10467,15 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <f>(D180-A180)</f>
+        <f t="shared" si="13"/>
         <v>-2.4900000000000002</v>
       </c>
       <c r="G180">
-        <f>ABS(D180-A180)</f>
+        <f t="shared" si="14"/>
         <v>2.4900000000000002</v>
       </c>
       <c r="I180" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>6.2001000000000008</v>
       </c>
     </row>
@@ -10472,15 +10493,15 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <f>(D181-A181)</f>
+        <f t="shared" si="13"/>
         <v>-2.25</v>
       </c>
       <c r="G181">
-        <f>ABS(D181-A181)</f>
+        <f t="shared" si="14"/>
         <v>2.25</v>
       </c>
       <c r="I181" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>5.0625</v>
       </c>
     </row>
@@ -10498,15 +10519,15 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <f>(D182-A182)</f>
+        <f t="shared" si="13"/>
         <v>-2.0299999999999998</v>
       </c>
       <c r="G182">
-        <f>ABS(D182-A182)</f>
+        <f t="shared" si="14"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="I182" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4.1208999999999989</v>
       </c>
     </row>
@@ -10524,15 +10545,15 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <f>(D183-A183)</f>
+        <f t="shared" si="13"/>
         <v>-1.86</v>
       </c>
       <c r="G183">
-        <f>ABS(D183-A183)</f>
+        <f t="shared" si="14"/>
         <v>1.86</v>
       </c>
       <c r="I183" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>3.4596000000000005</v>
       </c>
     </row>
@@ -10550,15 +10571,15 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <f>(D184-A184)</f>
+        <f t="shared" si="13"/>
         <v>-1.73</v>
       </c>
       <c r="G184">
-        <f>ABS(D184-A184)</f>
+        <f t="shared" si="14"/>
         <v>1.73</v>
       </c>
       <c r="I184" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.9929000000000001</v>
       </c>
     </row>
@@ -10576,15 +10597,15 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <f>(D185-A185)</f>
+        <f t="shared" si="13"/>
         <v>-1.63</v>
       </c>
       <c r="G185">
-        <f>ABS(D185-A185)</f>
+        <f t="shared" si="14"/>
         <v>1.63</v>
       </c>
       <c r="I185" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.6568999999999998</v>
       </c>
     </row>
@@ -10602,15 +10623,15 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <f>(D186-A186)</f>
+        <f t="shared" si="13"/>
         <v>-1.54</v>
       </c>
       <c r="G186">
-        <f>ABS(D186-A186)</f>
+        <f t="shared" si="14"/>
         <v>1.54</v>
       </c>
       <c r="I186" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.3715999999999999</v>
       </c>
     </row>
@@ -10628,15 +10649,15 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <f>(D187-A187)</f>
+        <f t="shared" si="13"/>
         <v>-1.48</v>
       </c>
       <c r="G187">
-        <f>ABS(D187-A187)</f>
+        <f t="shared" si="14"/>
         <v>1.48</v>
       </c>
       <c r="I187" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.1903999999999999</v>
       </c>
     </row>
@@ -10654,15 +10675,15 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <f>(D188-A188)</f>
+        <f t="shared" si="13"/>
         <v>-1.49</v>
       </c>
       <c r="G188">
-        <f>ABS(D188-A188)</f>
+        <f t="shared" si="14"/>
         <v>1.49</v>
       </c>
       <c r="I188" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.2201</v>
       </c>
     </row>
@@ -10680,15 +10701,15 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <f>(D189-A189)</f>
+        <f t="shared" si="13"/>
         <v>-1.49</v>
       </c>
       <c r="G189">
-        <f>ABS(D189-A189)</f>
+        <f t="shared" si="14"/>
         <v>1.49</v>
       </c>
       <c r="I189" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.2201</v>
       </c>
     </row>
@@ -10706,15 +10727,15 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <f>(D190-A190)</f>
+        <f t="shared" si="13"/>
         <v>-1.49</v>
       </c>
       <c r="G190">
-        <f>ABS(D190-A190)</f>
+        <f t="shared" si="14"/>
         <v>1.49</v>
       </c>
       <c r="I190" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.2201</v>
       </c>
     </row>
@@ -10732,15 +10753,15 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <f>(D191-A191)</f>
+        <f t="shared" si="13"/>
         <v>-1.51</v>
       </c>
       <c r="G191">
-        <f>ABS(D191-A191)</f>
+        <f t="shared" si="14"/>
         <v>1.51</v>
       </c>
       <c r="I191" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.2801</v>
       </c>
     </row>
@@ -10758,15 +10779,15 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <f>(D192-A192)</f>
+        <f t="shared" si="13"/>
         <v>-1.69</v>
       </c>
       <c r="G192">
-        <f>ABS(D192-A192)</f>
+        <f t="shared" si="14"/>
         <v>1.69</v>
       </c>
       <c r="I192" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.8560999999999996</v>
       </c>
     </row>
@@ -10784,15 +10805,15 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <f>(D193-A193)</f>
+        <f t="shared" si="13"/>
         <v>-2.61</v>
       </c>
       <c r="G193">
-        <f>ABS(D193-A193)</f>
+        <f t="shared" si="14"/>
         <v>2.61</v>
       </c>
       <c r="I193" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>6.8120999999999992</v>
       </c>
     </row>
@@ -10810,15 +10831,15 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <f>(D194-A194)</f>
+        <f t="shared" si="13"/>
         <v>-4.87</v>
       </c>
       <c r="G194">
-        <f>ABS(D194-A194)</f>
+        <f t="shared" si="14"/>
         <v>4.87</v>
       </c>
       <c r="I194" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>23.716900000000003</v>
       </c>
     </row>
